--- a/finetuning/it_datasets/qa_dataset/qa_it_skanes_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_skanes_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,14 +672,47 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for a top-rated hotel, check out Hotel Skanes located at Dekhila Skanes, 5000. 
-This four-star hotel is perfect for hotel lovers and offers a range of amenities to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: -34.9271714, 138.5995342. For more details, visit their website at https://www.google.com/maps/place/Hotel+Skanes/data=!4m10!3m9!1s0x13021356dc489419:0xe628cc07aa43f83b!5m2!4m1!1i2!8m2!3d35.7641601!4d10.746232!16s%2Fg%2F12hsz2kbp!19sChIJGZRI3FYTAhMRO_hDqgfMKOY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 919 643.</t>
+          <t>Tucked away in the pleasant town of Skanes, Hotel Skanes is a vibrant beachfront resort that caters to both leisure and business travelers. With an array of amenities such as five outdoor pools, three restaurants, and a lively animation program, the hotel provides an immersive and unforgettable experience. Situated conveniently just steps away from the picturesque shoreline, Hotel Skanes is an ideal destination for those seeking a blissful escape adorned with the charm of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where is a highly-rated four-star hotel located in Skanes, Tunisia, and what makes it distinctive?</t>
+          <t>Day Plan:
+Morning: Exploring Hotel Skanes
+Mid-Morning: Trying local cuisine at one of the 3 restaurants at Hotel Skanes
+Midday: Enjoying the sun and sand at Skanes Serail beach
+Afternoon: Participating in recreational activities like swimming or playing tennis at Hotel Skanes
+Evening: Relaxing with a drink at the beach bar at Skanes Serail beach
+Night: Experiencing cultural immersion at a traditional Tunisian restaurant in Skanes</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Skanes, located in skanes, is a 4.4-star all-inclusive resort that offers a variety of amenities, including 5 outdoor pools, 3 restaurants, a nightclub, and a tennis court. The hotel is situated on the beach and offers colorful rooms with balconies or patios. It is a popular destination for families and couples.
+Skanes Serail beach is a popular beach located in Skanes, Tunisia. It offers a variety of amenities, including a beach bar, restaurant, and sun loungers. The beach is also known for its beautiful scenery, with clear blue waters and white sandy beaches. It is a great place to relax and enjoy the sun and sand. The beach is located at (35.769481, 10.7671271).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -780,14 +818,47 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for a great place to stay, check out Hotel Skanes located at Dekhila Skanes, 5000. 
-This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: -34.9271714, 138.5995342. For more details, visit their website at https://www.google.com/maps/place/Hotel+Skanes/data=!4m10!3m9!1s0x13021356dc489419:0xe628cc07aa43f83b!5m2!4m1!1i2!8m2!3d35.7641601!4d10.746232!16s%2Fg%2F12hsz2kbp!19sChIJGZRI3FYTAhMRO_hDqgfMKOY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 919 643.</t>
+          <t>Hotel Skanes, located in skanes, is a 4.4-star all-inclusive resort that offers a variety of amenities, including 5 outdoor pools, 3 restaurants, a nightclub, and a tennis court. The hotel is situated on the beach and offers colorful rooms with balconies or patios. It is a popular destination for families and couples.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Hotel Skanes conveniently located in Skanes, offering a range of categories to accommodate Hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Skanes Serail beach
+Mid-Morning: Trying local cuisine at the Skanes Serail beach restaurant
+Midday: Enjoying sun and sand at Skanes Serail beach
+Afternoon: Participating in water sports at Skanes Serail beach
+Evening: Relaxing with a massage at Hotel Skanes
+Night: Trying local cuisine at one of the restaurants at Hotel Skanes</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Tucked away in the pleasant town of Skanes, Hotel Skanes is a vibrant beachfront resort that caters to both leisure and business travelers. With an array of amenities such as five outdoor pools, three restaurants, and a lively animation program, the hotel provides an immersive and unforgettable experience. Situated conveniently just steps away from the picturesque shoreline, Hotel Skanes is an ideal destination for those seeking a blissful escape adorned with the charm of the Mediterranean Sea.
+Skanes Serail beach is a popular beach located in Skanes, Tunisia. It offers a variety of amenities, including a beach bar, restaurant, and sun loungers. The beach is also known for its beautiful scenery, with clear blue waters and white sandy beaches. It is a great place to relax and enjoy the sun and sand. The beach is located at (35.769481, 10.7671271).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -893,14 +964,47 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for a great place to stay, check out Hotel Skanes located at Dekhila Skanes, 5000. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: -34.9271714, 138.5995342. For more details, call them at 29 919 643.</t>
+          <t>Hotel Skanes is a 4-star all-inclusive resort located in Skanes, Tunisia. It features 2545 rooms, 5 outdoor swimming pools, 3 restaurants, and various entertainment options such as animation, tennis courts, a nightclub, and a water park. The hotel is situated on the beachfront, offering stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>What is the name and location of a top-rated destination in Skanes, known for Hotel lovers and offering a range of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Exploring Skanes Serail beach. Indulge in the beauty of the beach, relax on the sun loungers, and enjoy the clear blue waters.
+Mid-Morning: Trying local cuisine at the beach restaurant. Savor the authentic flavors of Tunisian cuisine while enjoying the stunning beach views.
+Midday: Enjoying water slides and swimming at Hotel Skanes. Experience the thrill of the water slides and cool off in the refreshing outdoor swimming pools.
+Afternoon: Taking a guided tour of Hotel Skanes. Discover the rich history and fascinating architecture of this beachfront resort.
+Evening: Participating in the evening entertainment at Hotel Skanes. Witness captivating performances, dance the night away at the nightclub, or unwind with a relaxing drink at the beach bar.
+Night: Relaxing with a massage at the Hotel Skanes spa. Soothe your muscles and rejuvenate your mind and body with a pampering massage session.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Skanes is a beachfront all-inclusive resort located in Dekhila Skanes. This convivial complex features colorful rooms, 5 outdoor swimming pools, and 3 restaurants. It is a popular destination for families and couples alike, with extensive leisure facilities including a tennis court, a nightclub, and water slides. The hotel's 952 reviews praise its convenient location, comfortable accommodations, and excellent amenities.
+Skanes Serail beach is a popular beach located in Skanes, Tunisia. It offers a variety of amenities, including a beach bar, restaurant, and sun loungers. The beach is also known for its beautiful scenery, with clear blue waters and white sandy beaches. It is a great place to relax and enjoy the sun and sand. The beach is located at (35.769481, 10.7671271).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -998,12 +1102,53 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for something fun to do, check out Skanes Serail beach located at Skanes Serail beach, Skanes. This top-rated destination is perfect for Pavillon de plage lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.769481, 10.7671271.</t>
+          <t>Skanes Serail beach is a popular beach located in Skanes, Tunisia. It offers a variety of amenities, including a beach bar, restaurant, and sun loungers. The beach is also known for its beautiful scenery, with clear blue waters and white sandy beaches. It is a great place to relax and enjoy the sun and sand. The beach is located at (35.769481, 10.7671271).</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a 5.0 rating in Skanes that is ideal for beachgoers and Pavillon de plage enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Exploring Skanes Serail beach: Enjoy the scenic beauty, relax on the white sandy beaches, and swim in the clear blue waters.
+**Mid-Morning:**
+- Trying local cuisine at Hotel Skanes: Indulge in authentic Tunisian dishes at one of the three restaurants in the hotel.
+**Midday:**
+- Relaxing with a massage at Hotel Skanes: Unwind and rejuvenate with a soothing massage at the hotel's spa.
+**Afternoon:**
+- Enjoying water slides at Hotel Skanes: Experience the thrill of water slides and splash around in the outdoor pools.
+**Evening:**
+- Participating in a traditional Tunisian dinner and dance performance at Hotel Skanes: Immerse yourself in the local culture with a delightful dinner and captivating dance performance.
+**Night:**
+- Dancing at the nightclub in Hotel Skanes: Let loose and dance the night away at the hotel's lively nightclub.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Skanes is a beachfront all-inclusive resort located in Dekhila Skanes. This convivial complex features colorful rooms, 5 outdoor swimming pools, and 3 restaurants. It is a popular destination for families and couples alike, with extensive leisure facilities including a tennis court, a nightclub, and water slides. The hotel's 952 reviews praise its convenient location, comfortable accommodations, and excellent amenities.
+Skanes Serail beach is a popular beach located in Skanes, Tunisia. It offers a variety of amenities, including a beach bar, restaurant, and sun loungers. The beach is also known for its beautiful scenery, with clear blue waters and white sandy beaches. It is a great place to relax and enjoy the sun and sand. The beach is located at (35.769481, 10.7671271).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1109,12 +1254,47 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for a fantastic place to stay, check out Hotel Skanes at Dekhila Skanes, 5000. This top-rated hotel is a perfect destination for those seeking a comfortable and convenient stay. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: -34.9271714, 138.5995342. For more information, call them at 29 919 643.</t>
+          <t>Hotel Skanes is a beachfront all-inclusive resort located in Dekhila Skanes. This convivial complex features colorful rooms, 5 outdoor swimming pools, and 3 restaurants. It is a popular destination for families and couples alike, with extensive leisure facilities including a tennis court, a nightclub, and water slides. The hotel's 952 reviews praise its convenient location, comfortable accommodations, and excellent amenities.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with a rating of 4.4 in Skanes that offers a comfortable and convenient stay, easily accessible via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring Skanes Serail beach
+Mid-Morning: Trying local cuisine at the beach restaurant
+Midday: Enjoying sunbathing and swimming at the beach
+Afternoon: Playing beach volleyball or taking a boat trip
+Evening: Relaxing with a massage at Hotel Skanes
+Night: Having dinner and dancing at the Hotel Skanes nightclub</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Skanes, located in skanes, is a 4.4-star all-inclusive resort that offers a variety of amenities, including 5 outdoor pools, 3 restaurants, a nightclub, and a tennis court. The hotel is situated on the beach and offers colorful rooms with balconies or patios. It is a popular destination for families and couples.
+Skanes Serail beach is a popular beach located in Skanes, Tunisia. It offers a variety of amenities, including a beach bar, restaurant, and sun loungers. The beach is also known for its beautiful scenery, with clear blue waters and white sandy beaches. It is a great place to relax and enjoy the sun and sand. The beach is located at (35.769481, 10.7671271).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
